--- a/Dokumentation/DailyScrumTeam3.xlsx
+++ b/Dokumentation/DailyScrumTeam3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gandalf.htl-villach.at/Kommunikationschueler/4AHIFS/SYP-PRE (nicht SEP)/Scrum_Projekte/Gruppe3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\savan_000\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD89836-13A2-4EA3-A9D2-53CACD8F7D41}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F389FE3-D03E-40A6-B531-B911D38F7E72}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="20490" windowHeight="7530" xr2:uid="{51F9D801-FDA5-4616-9BD3-28FE05DD278D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{51F9D801-FDA5-4616-9BD3-28FE05DD278D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="61">
   <si>
     <t>Datum:</t>
   </si>
@@ -199,6 +199,15 @@
   </si>
   <si>
     <t>Error handeling</t>
+  </si>
+  <si>
+    <t>Bugelnig</t>
+  </si>
+  <si>
+    <t>WebService funktionsfähig</t>
+  </si>
+  <si>
+    <t>Melanie, Bugelnig, Unterkofler</t>
   </si>
 </sst>
 </file>
@@ -592,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A288D355-CEE6-4285-B868-02E11E567358}">
   <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D69" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1373,7 +1382,7 @@
         <v>43209</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>7</v>
@@ -1488,7 +1497,9 @@
       <c r="B57" s="2">
         <v>43216</v>
       </c>
-      <c r="C57" s="3"/>
+      <c r="C57" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1500,10 +1511,18 @@
       <c r="B58" s="2">
         <v>43217</v>
       </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
+      <c r="C58" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
